--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -1,52 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz.c.rodrigues\Downloads\dev\utils\trade\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFD2F0E-881D-475A-AAE6-41F2C7D6DBC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Broadcast" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Broadcast" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ambito" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Indicador</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -64,22 +49,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -379,32 +358,483 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col width="31.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="26.5703125" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Indicador</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>43943.75202439124</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12.140625" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" style="1" min="2" max="2"/>
+    <col width="10.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Indicador</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Data Atualização</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>421</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>21-04-2020</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>43943.75202439124</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>403</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20-04-2020</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>43943.75202439124</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>397</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>17-04-2020</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>43943.75202439124</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>400</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16-04-2020</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>43943.75202439124</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>394</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15-04-2020</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>43943.75202439124</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>366</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14-04-2020</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>43943.75202439124</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>374</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>13-04-2020</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>43943.75202439124</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>390</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>09-04-2020</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>43943.75202439124</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>415</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08-04-2020</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>43943.75202439124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>418</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>07-04-2020</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>43943.75202439124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>437</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>06-04-2020</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>43943.75202439124</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>445</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>03-04-2020</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>43943.75202439124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>427</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>02-04-2020</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>43943.75202439124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>414</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>01-04-2020</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>43943.75202439124</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>385</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>31-03-2020</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>43943.75202439124</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>393</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>30-03-2020</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>43943.75202439124</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>375</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>27-03-2020</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>43943.75202439124</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>343</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>26-03-2020</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>43943.75202439124</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>370</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>25-03-2020</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>43943.75202439124</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>427</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>24-03-2020</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>43943.75202439124</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Risco País - Brasil (pontos)</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>476</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>23-03-2020</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>43943.75202439124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>